--- a/sim4.xlsx
+++ b/sim4.xlsx
@@ -441,19 +441,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>19.8</v>
+        <v>7.7</v>
       </c>
       <c r="F2">
-        <v>-39.6</v>
+        <v>-15.4</v>
       </c>
       <c r="G2">
-        <v>-19.8</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,19 +464,19 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>37.51485287519509</v>
+        <v>26.23077611813142</v>
       </c>
       <c r="F3">
-        <v>-73.34607660725206</v>
+        <v>-51.80680756948691</v>
       </c>
       <c r="G3">
-        <v>-35.83122373205697</v>
+        <v>-25.57603145135549</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -490,16 +490,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>55.39038416983547</v>
+        <v>41.05429900655535</v>
       </c>
       <c r="F4">
-        <v>-106.0157669907484</v>
+        <v>-79.2656303534439</v>
       </c>
       <c r="G4">
-        <v>-50.62538282091296</v>
+        <v>-38.21133134688854</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,13 +516,13 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>96.17306263380803</v>
+        <v>82.15204344223295</v>
       </c>
       <c r="F5">
-        <v>-183.1784905433296</v>
+        <v>-158.153550868581</v>
       </c>
       <c r="G5">
-        <v>-87.00542790952156</v>
+        <v>-76.00150742634804</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>94.05945497275833</v>
+        <v>80.34657750785236</v>
       </c>
       <c r="F6">
-        <v>-171.364757410833</v>
+        <v>-147.9537515451108</v>
       </c>
       <c r="G6">
-        <v>-77.30530243807463</v>
+        <v>-67.60717403725845</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -559,16 +559,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>101.892298336793</v>
+        <v>87.38079052853635</v>
       </c>
       <c r="F7">
-        <v>-180.1129275460829</v>
+        <v>-156.0117680320837</v>
       </c>
       <c r="G7">
-        <v>-78.2206292092899</v>
+        <v>-68.63097750354731</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,13 +585,13 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>124.6529983034082</v>
+        <v>110.4604117526943</v>
       </c>
       <c r="F8">
-        <v>-218.4969018138543</v>
+        <v>-195.9500987411467</v>
       </c>
       <c r="G8">
-        <v>-93.84390351044604</v>
+        <v>-85.48968698845242</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,13 +608,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>121.9134834645173</v>
+        <v>108.0328091982018</v>
       </c>
       <c r="F9">
-        <v>-204.4053778546282</v>
+        <v>-183.312686089978</v>
       </c>
       <c r="G9">
-        <v>-82.49189439011089</v>
+        <v>-75.27987689177617</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -628,16 +628,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E10">
-        <v>126.9341752925711</v>
+        <v>119.9585583746061</v>
       </c>
       <c r="F10">
-        <v>-206.6226587610319</v>
+        <v>-200.0902982820827</v>
       </c>
       <c r="G10">
-        <v>-79.68848346846076</v>
+        <v>-80.13173990747657</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -648,19 +648,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11">
-        <v>145.0445267361042</v>
+        <v>147.0222138406439</v>
       </c>
       <c r="F11">
-        <v>-235.0969405367497</v>
+        <v>-246.5858716799482</v>
       </c>
       <c r="G11">
-        <v>-90.0524138006455</v>
+        <v>-99.56365783930437</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -668,22 +668,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12">
-        <v>181.8568646766141</v>
+        <v>185.7910878994717</v>
       </c>
       <c r="F12">
-        <v>-299.9348300316922</v>
+        <v>-314.6828053667018</v>
       </c>
       <c r="G12">
-        <v>-118.0779653550782</v>
+        <v>-128.8917174672301</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -700,13 +700,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>177.8601731720654</v>
+        <v>181.7079334694802</v>
       </c>
       <c r="F13">
-        <v>-280.5911285489191</v>
+        <v>-294.3879624898946</v>
       </c>
       <c r="G13">
-        <v>-102.7309553768538</v>
+        <v>-112.6800290204143</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -717,19 +717,19 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>191.5513174663519</v>
+        <v>192.5645150450617</v>
       </c>
       <c r="F14">
-        <v>-297.6949606954184</v>
+        <v>-305.1019952185222</v>
       </c>
       <c r="G14">
-        <v>-106.1436432290666</v>
+        <v>-112.5374801734605</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -737,22 +737,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>232.3415697366511</v>
+        <v>213.3325001429754</v>
       </c>
       <c r="F15">
-        <v>-368.4957151392769</v>
+        <v>-335.4250476740108</v>
       </c>
       <c r="G15">
-        <v>-136.1541454026258</v>
+        <v>-122.0925475310354</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -769,13 +769,13 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>227.2353694314206</v>
+        <v>208.6440645841542</v>
       </c>
       <c r="F16">
-        <v>-344.7303154670147</v>
+        <v>-313.7924750536005</v>
       </c>
       <c r="G16">
-        <v>-117.4949460355941</v>
+        <v>-105.1484104694462</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -786,19 +786,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>7</v>
       </c>
       <c r="E17">
-        <v>233.7913887414174</v>
+        <v>211.758667371457</v>
       </c>
       <c r="F17">
-        <v>-345.5976180715455</v>
+        <v>-308.9550522630029</v>
       </c>
       <c r="G17">
-        <v>-111.8062293301281</v>
+        <v>-97.19638489154588</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -812,16 +812,16 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E18">
-        <v>239.6533255790449</v>
+        <v>228.0048201361434</v>
       </c>
       <c r="F18">
-        <v>-345.30898571622</v>
+        <v>-330.8296094528477</v>
       </c>
       <c r="G18">
-        <v>-105.6556601371751</v>
+        <v>-102.8247893167043</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -838,13 +838,13 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <v>274.3864338833047</v>
+        <v>262.9939291298857</v>
       </c>
       <c r="F19">
-        <v>-403.038968131707</v>
+        <v>-389.4934104984212</v>
       </c>
       <c r="G19">
-        <v>-128.6525342484023</v>
+        <v>-126.4994813685354</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>268.3562082373555</v>
+        <v>257.2140780136223</v>
       </c>
       <c r="F20">
-        <v>-377.0457699271474</v>
+        <v>-364.3738061450603</v>
       </c>
       <c r="G20">
-        <v>-108.6895616897919</v>
+        <v>-107.159728131438</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -881,16 +881,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <v>274.5585096293741</v>
+        <v>259.261251422361</v>
       </c>
       <c r="F21">
-        <v>-376.9289514434707</v>
+        <v>-356.2742408112605</v>
       </c>
       <c r="G21">
-        <v>-102.3704418140966</v>
+        <v>-97.01298938889948</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -898,22 +898,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>293.5245022528113</v>
+        <v>298.5634338400497</v>
       </c>
       <c r="F22">
-        <v>-402.6196669360103</v>
+        <v>-423.2970408657708</v>
       </c>
       <c r="G22">
-        <v>-109.095164683199</v>
+        <v>-124.7336070257211</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>287.0736768379071</v>
+        <v>292.0018671831114</v>
       </c>
       <c r="F23">
-        <v>-376.6535107297411</v>
+        <v>-395.9973384731428</v>
       </c>
       <c r="G23">
-        <v>-89.57983389183403</v>
+        <v>-103.9954712900314</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -947,19 +947,19 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E24">
-        <v>293.9646220357258</v>
+        <v>302.0845049132934</v>
       </c>
       <c r="F24">
-        <v>-378.7619902243542</v>
+        <v>-403.4582761955549</v>
       </c>
       <c r="G24">
-        <v>-84.79736818862835</v>
+        <v>-101.3737712822615</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -973,16 +973,16 @@
         <v>1.5</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E25">
-        <v>302.3541240522305</v>
+        <v>318.5455552283877</v>
       </c>
       <c r="F25">
-        <v>-384.0344875193607</v>
+        <v>-423.6380355497573</v>
       </c>
       <c r="G25">
-        <v>-81.68036346713018</v>
+        <v>-105.0924803213696</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -999,13 +999,13 @@
         <v>12</v>
       </c>
       <c r="E26">
-        <v>337.7092489131277</v>
+        <v>353.5448389416697</v>
       </c>
       <c r="F26">
-        <v>-443.2669455673995</v>
+        <v>-480.3163413818707</v>
       </c>
       <c r="G26">
-        <v>-105.5576966542719</v>
+        <v>-126.771502440201</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>330.2873696866341</v>
+        <v>345.7749389338372</v>
       </c>
       <c r="F27">
-        <v>-414.6793238119322</v>
+        <v>-449.3392923875711</v>
       </c>
       <c r="G27">
-        <v>-84.39195412529813</v>
+        <v>-103.5643534537339</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1042,16 +1042,16 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E28">
-        <v>337.328602046305</v>
+        <v>345.8757990092588</v>
       </c>
       <c r="F28">
-        <v>-416.5354039742506</v>
+        <v>-435.7600466777372</v>
       </c>
       <c r="G28">
-        <v>-79.20680192794561</v>
+        <v>-89.88424766847839</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1068,13 +1068,13 @@
         <v>10</v>
       </c>
       <c r="E29">
-        <v>374.915088344542</v>
+        <v>383.2744424699416</v>
       </c>
       <c r="F29">
-        <v>-479.6717799308781</v>
+        <v>-497.6565674647269</v>
       </c>
       <c r="G29">
-        <v>-104.7566915863362</v>
+        <v>-114.3821249947853</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1091,13 +1091,13 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>366.6755316405467</v>
+        <v>374.8511711743861</v>
       </c>
       <c r="F30">
-        <v>-448.7363006478855</v>
+        <v>-465.5611950101106</v>
       </c>
       <c r="G30">
-        <v>-82.06076900733876</v>
+        <v>-90.71002383572454</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1108,19 +1108,19 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31">
-        <v>371.8170567249055</v>
+        <v>388.0630191861898</v>
       </c>
       <c r="F31">
-        <v>-446.1959436933449</v>
+        <v>-478.4357498916256</v>
       </c>
       <c r="G31">
-        <v>-74.37888696843936</v>
+        <v>-90.37273070543586</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1134,16 +1134,16 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32">
-        <v>384.5455858568617</v>
+        <v>399.334508729524</v>
       </c>
       <c r="F32">
-        <v>-459.2194220178986</v>
+        <v>-487.1799859124558</v>
       </c>
       <c r="G32">
-        <v>-74.67383616103689</v>
+        <v>-87.84547718293186</v>
       </c>
     </row>
   </sheetData>
